--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17564.83986555246</v>
+        <v>16917.86732436757</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681862</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.24410049029191</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>24.68690330538581</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>68.39702598806983</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>68.39702598806983</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.565094327417526</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.99210285748836</v>
       </c>
       <c r="V11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>68.39702598806983</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087938</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964403</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998886</v>
+        <v>31.53932278998894</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362608</v>
+        <v>0.4251038644363438</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938167</v>
+        <v>9.02867510693825</v>
       </c>
       <c r="U13" t="n">
-        <v>67.59134727882463</v>
+        <v>67.59134727882471</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692797</v>
+        <v>34.48632710692806</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740435</v>
+        <v>67.64255292740444</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298158</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.2986499077571239</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>60.24410049029188</v>
       </c>
       <c r="C14" t="n">
-        <v>24.6869033053862</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417442</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087938</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964403</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998886</v>
+        <v>31.53932278998894</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362608</v>
+        <v>0.4251038644363438</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938167</v>
+        <v>9.02867510693825</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882463</v>
+        <v>67.59134727882471</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692797</v>
+        <v>34.48632710692806</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740435</v>
+        <v>67.64255292740444</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298158</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.2986499077571239</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>6.074615754043805</v>
       </c>
       <c r="E17" t="n">
-        <v>32.58791875473288</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F17" t="n">
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521427</v>
+        <v>63.87918891521429</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>16.45497867838804</v>
       </c>
       <c r="D20" t="n">
-        <v>6.074615754043805</v>
+        <v>6.074615754043531</v>
       </c>
       <c r="E20" t="n">
         <v>32.58791875473287</v>
@@ -2093,7 +2093,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521427</v>
+        <v>63.87918891521429</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521427</v>
+        <v>63.87918891521429</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
         <v>112.566723118609</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U28" t="n">
         <v>65.0262529514072</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U31" t="n">
         <v>65.0262529514072</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039665</v>
+        <v>162.7012917039664</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678589</v>
+        <v>162.1029174678588</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931123</v>
+        <v>186.2787451931122</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.5667231186091</v>
+        <v>112.566723118609</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007088</v>
+        <v>30.42700853007085</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350908</v>
+        <v>107.5181032350907</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670455</v>
+        <v>3.626378395670427</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222655</v>
+        <v>10.89361275222652</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257146</v>
+        <v>28.97422846257143</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520767</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U34" t="n">
-        <v>65.02625295140723</v>
+        <v>65.0262529514072</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951058</v>
+        <v>31.92123277951055</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998695</v>
+        <v>65.07745859998693</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880674</v>
+        <v>5.125241644880646</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>168.5838381209907</v>
+      </c>
+      <c r="C11" t="n">
+        <v>168.5838381209907</v>
+      </c>
+      <c r="D11" t="n">
+        <v>168.5838381209907</v>
+      </c>
+      <c r="E11" t="n">
+        <v>168.5838381209907</v>
+      </c>
+      <c r="F11" t="n">
         <v>143.6475721559544</v>
       </c>
-      <c r="C11" t="n">
-        <v>74.55966711750001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>74.55966711750001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.47176207904559</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.47176207904559</v>
-      </c>
       <c r="G11" t="n">
-        <v>5.47176207904559</v>
+        <v>74.55966711749997</v>
       </c>
       <c r="H11" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439187</v>
+        <v>35.5670621543918</v>
       </c>
       <c r="J11" t="n">
-        <v>103.280117882581</v>
+        <v>35.5670621543918</v>
       </c>
       <c r="K11" t="n">
-        <v>111.7153199060977</v>
+        <v>95.48833333466567</v>
       </c>
       <c r="L11" t="n">
-        <v>170.0011912574608</v>
+        <v>153.7742046860288</v>
       </c>
       <c r="M11" t="n">
-        <v>170.0011912574608</v>
+        <v>153.7742046860288</v>
       </c>
       <c r="N11" t="n">
-        <v>237.71424698565</v>
+        <v>153.7742046860288</v>
       </c>
       <c r="O11" t="n">
-        <v>237.71424698565</v>
+        <v>165.897102740523</v>
       </c>
       <c r="P11" t="n">
-        <v>237.71424698565</v>
+        <v>165.897102740523</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.71424698565</v>
+        <v>215.2056264681703</v>
       </c>
       <c r="R11" t="n">
-        <v>273.5881039522795</v>
+        <v>251.0794834347998</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522793</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522795</v>
+        <v>270.9970995811505</v>
       </c>
       <c r="U11" t="n">
-        <v>273.5881039522795</v>
+        <v>237.6717431594451</v>
       </c>
       <c r="V11" t="n">
-        <v>204.500198913825</v>
+        <v>237.6717431594451</v>
       </c>
       <c r="W11" t="n">
-        <v>204.500198913825</v>
+        <v>237.6717431594451</v>
       </c>
       <c r="X11" t="n">
-        <v>204.500198913825</v>
+        <v>237.6717431594451</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.500198913825</v>
+        <v>168.5838381209907</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="C12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="D12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="E12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="F12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="G12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="H12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="I12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="J12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="K12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="L12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="M12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="N12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="O12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="P12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291728</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711515</v>
+        <v>37.32966388711523</v>
       </c>
       <c r="W12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="X12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.59620139223864</v>
+        <v>43.45443122367961</v>
       </c>
       <c r="C13" t="n">
-        <v>5.59620139223864</v>
+        <v>43.45443122367961</v>
       </c>
       <c r="D13" t="n">
-        <v>5.59620139223864</v>
+        <v>111.1674869518687</v>
       </c>
       <c r="E13" t="n">
-        <v>73.30925712042782</v>
+        <v>111.1674869518687</v>
       </c>
       <c r="F13" t="n">
-        <v>141.022312848617</v>
+        <v>111.1674869518687</v>
       </c>
       <c r="G13" t="n">
-        <v>141.022312848617</v>
+        <v>111.1674869518687</v>
       </c>
       <c r="H13" t="n">
-        <v>141.022312848617</v>
+        <v>111.1674869518687</v>
       </c>
       <c r="I13" t="n">
-        <v>141.022312848617</v>
+        <v>111.1674869518687</v>
       </c>
       <c r="J13" t="n">
-        <v>141.022312848617</v>
+        <v>111.1674869518687</v>
       </c>
       <c r="K13" t="n">
-        <v>141.022312848617</v>
+        <v>111.1674869518687</v>
       </c>
       <c r="L13" t="n">
-        <v>141.022312848617</v>
+        <v>111.1674869518687</v>
       </c>
       <c r="M13" t="n">
-        <v>141.022312848617</v>
+        <v>178.8805426800579</v>
       </c>
       <c r="N13" t="n">
-        <v>141.022312848617</v>
+        <v>178.8805426800579</v>
       </c>
       <c r="O13" t="n">
-        <v>141.022312848617</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="P13" t="n">
-        <v>141.022312848617</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.022312848617</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751574</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297648</v>
+        <v>184.9760178297653</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693359</v>
+        <v>116.7019296693363</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395439</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617213</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537548</v>
+        <v>5.77342865253763</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045586</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.49593308253662</v>
+        <v>212.7354771944089</v>
       </c>
       <c r="C14" t="n">
-        <v>74.55966711750006</v>
+        <v>212.7354771944089</v>
       </c>
       <c r="D14" t="n">
-        <v>5.471762079045593</v>
+        <v>143.6475721559544</v>
       </c>
       <c r="E14" t="n">
-        <v>5.471762079045593</v>
+        <v>143.6475721559544</v>
       </c>
       <c r="F14" t="n">
-        <v>5.471762079045593</v>
+        <v>143.6475721559544</v>
       </c>
       <c r="G14" t="n">
-        <v>5.471762079045593</v>
+        <v>74.55966711750001</v>
       </c>
       <c r="H14" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I14" t="n">
-        <v>35.56706215439188</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J14" t="n">
-        <v>38.26277583206004</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K14" t="n">
-        <v>98.18404701233395</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L14" t="n">
-        <v>98.18404701233395</v>
+        <v>63.75763343040867</v>
       </c>
       <c r="M14" t="n">
-        <v>98.18404701233395</v>
+        <v>63.75763343040867</v>
       </c>
       <c r="N14" t="n">
-        <v>165.8971027405232</v>
+        <v>131.4706891585978</v>
       </c>
       <c r="O14" t="n">
-        <v>165.8971027405232</v>
+        <v>199.183744886787</v>
       </c>
       <c r="P14" t="n">
-        <v>165.8971027405232</v>
+        <v>199.183744886787</v>
       </c>
       <c r="Q14" t="n">
         <v>215.2056264681705</v>
       </c>
       <c r="R14" t="n">
-        <v>251.0794834348001</v>
+        <v>251.0794834348</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="T14" t="n">
-        <v>270.9970995811509</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="U14" t="n">
-        <v>237.6717431594456</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="V14" t="n">
-        <v>168.5838381209911</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="W14" t="n">
-        <v>168.5838381209911</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="X14" t="n">
-        <v>99.49593308253662</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.49593308253662</v>
+        <v>273.5881039522795</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="E15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="F15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="G15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="H15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="I15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="J15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="K15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="L15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="M15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="N15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="O15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291728</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711515</v>
+        <v>37.32966388711523</v>
       </c>
       <c r="W15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.45443122367969</v>
+        <v>43.45443122367961</v>
       </c>
       <c r="C16" t="n">
-        <v>43.45443122367969</v>
+        <v>94.05676754220028</v>
       </c>
       <c r="D16" t="n">
-        <v>43.45443122367969</v>
+        <v>94.05676754220028</v>
       </c>
       <c r="E16" t="n">
-        <v>111.1674869518689</v>
+        <v>136.5187008913416</v>
       </c>
       <c r="F16" t="n">
-        <v>111.1674869518689</v>
+        <v>136.5187008913416</v>
       </c>
       <c r="G16" t="n">
-        <v>111.1674869518689</v>
+        <v>136.5187008913416</v>
       </c>
       <c r="H16" t="n">
-        <v>111.1674869518689</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="I16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="J16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="K16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="L16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="M16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="O16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751574</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297648</v>
+        <v>184.9760178297653</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693359</v>
+        <v>116.7019296693363</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395439</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617214</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537551</v>
+        <v>5.773428652537634</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687279</v>
       </c>
       <c r="C17" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436696</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345345</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832886</v>
+        <v>127.333312983289</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673677</v>
+        <v>69.9961953267368</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H17" t="n">
         <v>22.25055491761735</v>
@@ -5513,52 +5513,52 @@
         <v>22.25055491761735</v>
       </c>
       <c r="J17" t="n">
-        <v>89.96361064580657</v>
+        <v>89.96361064580653</v>
       </c>
       <c r="K17" t="n">
-        <v>157.6766663739958</v>
+        <v>89.96361064580653</v>
       </c>
       <c r="L17" t="n">
-        <v>184.0981217008355</v>
+        <v>89.96361064580653</v>
       </c>
       <c r="M17" t="n">
-        <v>184.0981217008355</v>
+        <v>89.96361064580653</v>
       </c>
       <c r="N17" t="n">
-        <v>184.0981217008355</v>
+        <v>89.96361064580653</v>
       </c>
       <c r="O17" t="n">
-        <v>184.0981217008355</v>
+        <v>89.96361064580653</v>
       </c>
       <c r="P17" t="n">
-        <v>184.0981217008355</v>
+        <v>157.6766663739957</v>
       </c>
       <c r="Q17" t="n">
-        <v>184.0981217008355</v>
+        <v>157.6766663739957</v>
       </c>
       <c r="R17" t="n">
-        <v>184.0981217008355</v>
+        <v>157.6766663739957</v>
       </c>
       <c r="S17" t="n">
-        <v>184.0981217008355</v>
+        <v>157.6766663739957</v>
       </c>
       <c r="T17" t="n">
-        <v>184.0981217008355</v>
+        <v>184.0981217008354</v>
       </c>
       <c r="U17" t="n">
-        <v>251.8111774290248</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="V17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="W17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="X17" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152948</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994554</v>
+        <v>216.5290767994552</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="R18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="S18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="T18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="U18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="V18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="W18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="R19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="S19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="T19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="U19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="V19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="W19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278992</v>
       </c>
       <c r="C20" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436688</v>
       </c>
       <c r="D20" t="n">
         <v>160.2504026345339</v>
@@ -5738,64 +5738,64 @@
         <v>127.3333129832886</v>
       </c>
       <c r="F20" t="n">
-        <v>69.99619532673677</v>
+        <v>69.9961953267368</v>
       </c>
       <c r="G20" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H20" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I20" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J20" t="n">
-        <v>48.67201024445708</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K20" t="n">
-        <v>48.67201024445708</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L20" t="n">
-        <v>48.67201024445708</v>
+        <v>73.18481780723477</v>
       </c>
       <c r="M20" t="n">
-        <v>48.67201024445708</v>
+        <v>140.8978735354239</v>
       </c>
       <c r="N20" t="n">
-        <v>48.67201024445708</v>
+        <v>140.8978735354239</v>
       </c>
       <c r="O20" t="n">
-        <v>48.67201024445708</v>
+        <v>140.8978735354239</v>
       </c>
       <c r="P20" t="n">
-        <v>48.67201024445708</v>
+        <v>184.0981217008354</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.67201024445708</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="R20" t="n">
-        <v>116.3850659726463</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="S20" t="n">
-        <v>184.0981217008355</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="T20" t="n">
-        <v>251.8111774290248</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="U20" t="n">
-        <v>251.8111774290248</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="V20" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="X20" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152948</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994554</v>
+        <v>216.5290767994552</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="R21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="S21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="T21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="U21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="V21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="W21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278993</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3863781436691</v>
+        <v>166.3863781436689</v>
       </c>
       <c r="D23" t="n">
         <v>160.2504026345339</v>
@@ -5975,10 +5975,10 @@
         <v>127.3333129832886</v>
       </c>
       <c r="F23" t="n">
-        <v>69.99619532673682</v>
+        <v>69.9961953267368</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="H23" t="n">
         <v>22.25055491761735</v>
@@ -5987,43 +5987,43 @@
         <v>22.25055491761735</v>
       </c>
       <c r="J23" t="n">
-        <v>70.44893676771201</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="K23" t="n">
-        <v>70.44893676771201</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="L23" t="n">
-        <v>70.44893676771201</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="M23" t="n">
-        <v>70.44893676771201</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="N23" t="n">
-        <v>70.44893676771201</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="O23" t="n">
-        <v>70.44893676771201</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="P23" t="n">
-        <v>70.44893676771201</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.44893676771201</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="R23" t="n">
-        <v>70.44893676771201</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="S23" t="n">
-        <v>138.1619924959012</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8750482240905</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="U23" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="V23" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="W23" t="n">
         <v>273.5881039522797</v>
@@ -6032,7 +6032,7 @@
         <v>253.0512533152951</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994553</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045591</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923729</v>
       </c>
       <c r="C26" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847829</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522881</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776831</v>
       </c>
       <c r="F26" t="n">
-        <v>343.7160714977722</v>
+        <v>343.7160714977717</v>
       </c>
       <c r="G26" t="n">
         <v>148.3684072267213</v>
@@ -6224,31 +6224,31 @@
         <v>67.29938996034309</v>
       </c>
       <c r="J26" t="n">
-        <v>322.88141175434</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="K26" t="n">
-        <v>719.0822431020284</v>
+        <v>211.2402513375901</v>
       </c>
       <c r="L26" t="n">
-        <v>779.9075578375348</v>
+        <v>272.0655660730965</v>
       </c>
       <c r="M26" t="n">
-        <v>853.807423769312</v>
+        <v>272.0655660730965</v>
       </c>
       <c r="N26" t="n">
-        <v>853.807423769312</v>
+        <v>701.0405665211593</v>
       </c>
       <c r="O26" t="n">
-        <v>1282.782424217375</v>
+        <v>1130.015566969222</v>
       </c>
       <c r="P26" t="n">
-        <v>1627.157398790682</v>
+        <v>1399.323479295054</v>
       </c>
       <c r="Q26" t="n">
-        <v>1627.157398790682</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R26" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S26" t="n">
         <v>1733.232325042678</v>
@@ -6266,7 +6266,7 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X26" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y26" t="n">
         <v>1144.365108087288</v>
@@ -6300,10 +6300,10 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K27" t="n">
         <v>78.59820166294284</v>
@@ -6361,49 +6361,49 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="D28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="E28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="F28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="G28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="H28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="I28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="J28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="K28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="L28" t="n">
-        <v>34.66464650085356</v>
+        <v>67.1441011821551</v>
       </c>
       <c r="M28" t="n">
-        <v>34.66464650085356</v>
+        <v>147.8486586083658</v>
       </c>
       <c r="N28" t="n">
-        <v>34.66464650085356</v>
+        <v>147.8486586083658</v>
       </c>
       <c r="O28" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="P28" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="R28" t="n">
         <v>210.0320876678294</v>
@@ -6440,16 +6440,16 @@
         <v>980.0203689923728</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847833</v>
+        <v>832.575947384783</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522883</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776834</v>
       </c>
       <c r="F29" t="n">
-        <v>343.7160714977722</v>
+        <v>343.716071497772</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6458,31 +6458,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034309</v>
+        <v>42.64012398708171</v>
       </c>
       <c r="J29" t="n">
-        <v>243.5789446850133</v>
+        <v>298.2221457810787</v>
       </c>
       <c r="K29" t="n">
-        <v>639.7797760327016</v>
+        <v>694.4229771287671</v>
       </c>
       <c r="L29" t="n">
-        <v>1068.754776480765</v>
+        <v>1123.39797757683</v>
       </c>
       <c r="M29" t="n">
-        <v>1142.654642412542</v>
+        <v>1123.39797757683</v>
       </c>
       <c r="N29" t="n">
-        <v>1142.654642412542</v>
+        <v>1279.209260692992</v>
       </c>
       <c r="O29" t="n">
-        <v>1213.66167413834</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="P29" t="n">
-        <v>1604.009996919088</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="Q29" t="n">
-        <v>1669.770960790283</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="R29" t="n">
         <v>1708.184261141055</v>
@@ -6525,13 +6525,13 @@
         <v>34.66464650085356</v>
       </c>
       <c r="E30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H30" t="n">
         <v>78.59820166294284</v>
@@ -6604,37 +6604,37 @@
         <v>34.66464650085356</v>
       </c>
       <c r="E31" t="n">
-        <v>84.70701294670428</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F31" t="n">
-        <v>84.70701294670428</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G31" t="n">
-        <v>137.4991066233972</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H31" t="n">
-        <v>137.4991066233972</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I31" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J31" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K31" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L31" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M31" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N31" t="n">
-        <v>210.0320876678294</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="O31" t="n">
-        <v>210.0320876678294</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="P31" t="n">
         <v>210.0320876678294</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923731</v>
+        <v>980.0203689923729</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847831</v>
+        <v>832.575947384783</v>
       </c>
       <c r="D32" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522883</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776835</v>
+        <v>531.8764201776833</v>
       </c>
       <c r="F32" t="n">
-        <v>343.7160714977722</v>
+        <v>343.7160714977721</v>
       </c>
       <c r="G32" t="n">
         <v>148.3684072267213</v>
@@ -6695,34 +6695,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>67.29938996034306</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J32" t="n">
-        <v>322.88141175434</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="K32" t="n">
-        <v>718.6152911001673</v>
+        <v>379.2175603843956</v>
       </c>
       <c r="L32" t="n">
-        <v>779.4406058356736</v>
+        <v>789.749289166562</v>
       </c>
       <c r="M32" t="n">
-        <v>1208.415606283736</v>
+        <v>789.749289166562</v>
       </c>
       <c r="N32" t="n">
-        <v>1208.415606283736</v>
+        <v>789.749289166562</v>
       </c>
       <c r="O32" t="n">
-        <v>1279.422638009534</v>
+        <v>1034.023220415928</v>
       </c>
       <c r="P32" t="n">
-        <v>1669.770960790283</v>
+        <v>1424.371543196677</v>
       </c>
       <c r="Q32" t="n">
-        <v>1669.770960790283</v>
+        <v>1694.819024691905</v>
       </c>
       <c r="R32" t="n">
-        <v>1708.184261141055</v>
+        <v>1733.232325042678</v>
       </c>
       <c r="S32" t="n">
         <v>1733.232325042678</v>
@@ -6734,7 +6734,7 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
@@ -6743,7 +6743,7 @@
         <v>1311.710515626488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="33">
@@ -6786,34 +6786,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246771</v>
+        <v>74.93519318246766</v>
       </c>
       <c r="V33" t="n">
-        <v>63.93154393779443</v>
+        <v>63.9315439377944</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
@@ -6838,64 +6838,64 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="E34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="F34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="G34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="H34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="I34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="J34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="K34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="L34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="M34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="N34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="O34" t="n">
-        <v>34.66464650085356</v>
+        <v>98.12510290766004</v>
       </c>
       <c r="P34" t="n">
-        <v>151.8710770559302</v>
+        <v>207.913497109478</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.8710770559302</v>
+        <v>207.913497109478</v>
       </c>
       <c r="R34" t="n">
-        <v>207.9134971094782</v>
+        <v>207.913497109478</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="T34" t="n">
-        <v>203.5032181935661</v>
+        <v>203.503218193566</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042659</v>
+        <v>137.8201344042658</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300128</v>
+        <v>105.5764649300127</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335929</v>
+        <v>39.84165826335926</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6932,31 +6932,31 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379385</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J35" t="n">
         <v>187.10457913912</v>
       </c>
       <c r="K35" t="n">
-        <v>460.4930582298875</v>
+        <v>548.3665238589937</v>
       </c>
       <c r="L35" t="n">
-        <v>543.2167751878902</v>
+        <v>631.0902408169965</v>
       </c>
       <c r="M35" t="n">
-        <v>639.0150433421638</v>
+        <v>726.8885089712701</v>
       </c>
       <c r="N35" t="n">
-        <v>736.9670586352048</v>
+        <v>1082.913071818046</v>
       </c>
       <c r="O35" t="n">
-        <v>1017.530693956172</v>
+        <v>1175.81850576634</v>
       </c>
       <c r="P35" t="n">
-        <v>1098.453469026058</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q35" t="n">
-        <v>1390.799352743783</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R35" t="n">
         <v>1390.799352743783</v>
@@ -7038,13 +7038,13 @@
         <v>29.19288442180797</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="U36" t="n">
         <v>36.11675336931268</v>
@@ -7093,13 +7093,13 @@
         <v>29.19288442180797</v>
       </c>
       <c r="J37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M37" t="n">
         <v>125.8253588837063</v>
@@ -7151,16 +7151,16 @@
         <v>840.4904359767104</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585565</v>
+        <v>715.3890428585566</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154979</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303291</v>
+        <v>459.3755726303292</v>
       </c>
       <c r="F38" t="n">
-        <v>293.5582524398537</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G38" t="n">
         <v>120.5536166582396</v>
@@ -7169,37 +7169,37 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379386</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J38" t="n">
-        <v>83.72603010379386</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K38" t="n">
-        <v>390.2151536688092</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="L38" t="n">
-        <v>472.9388706268119</v>
+        <v>443.93017107829</v>
       </c>
       <c r="M38" t="n">
-        <v>568.7371387810855</v>
+        <v>539.7284392325636</v>
       </c>
       <c r="N38" t="n">
-        <v>666.6891540741265</v>
+        <v>637.6804545256047</v>
       </c>
       <c r="O38" t="n">
-        <v>759.5945880224207</v>
+        <v>998.9423992454783</v>
       </c>
       <c r="P38" t="n">
-        <v>1060.040168675285</v>
+        <v>1189.079654935004</v>
       </c>
       <c r="Q38" t="n">
-        <v>1352.38605239301</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R38" t="n">
-        <v>1412.697754966279</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S38" t="n">
-        <v>1459.644221090399</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T38" t="n">
         <v>1459.644221090399</v>
@@ -7251,37 +7251,37 @@
         <v>29.19288442180797</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="L39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="M39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="N39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="O39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="P39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="R39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="S39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="T39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="U39" t="n">
         <v>36.11675336931268</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.19288442180797</v>
+        <v>50.78517695854595</v>
       </c>
       <c r="C40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="D40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="E40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="F40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="H40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="K40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="L40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="M40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="N40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="O40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="P40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="R40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="S40" t="n">
         <v>125.8253588837063</v>
@@ -7406,34 +7406,34 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I41" t="n">
-        <v>29.19288442180797</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J41" t="n">
-        <v>306.6733084383012</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K41" t="n">
-        <v>634.7675396910689</v>
+        <v>445.5655709072007</v>
       </c>
       <c r="L41" t="n">
-        <v>717.4912566490716</v>
+        <v>528.2892878652035</v>
       </c>
       <c r="M41" t="n">
-        <v>813.2895248033451</v>
+        <v>889.5512325850772</v>
       </c>
       <c r="N41" t="n">
-        <v>911.2415400963861</v>
+        <v>987.5032478781183</v>
       </c>
       <c r="O41" t="n">
-        <v>1004.14697404468</v>
+        <v>1175.81850576634</v>
       </c>
       <c r="P41" t="n">
-        <v>1085.069749114567</v>
+        <v>1256.741280836227</v>
       </c>
       <c r="Q41" t="n">
-        <v>1377.415632832291</v>
+        <v>1330.487650170514</v>
       </c>
       <c r="R41" t="n">
-        <v>1437.745818867902</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S41" t="n">
         <v>1437.745818867902</v>
@@ -7464,52 +7464,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="R42" t="n">
         <v>36.11675336931268</v>
@@ -7530,10 +7530,10 @@
         <v>29.19288442180797</v>
       </c>
       <c r="X42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="43">
@@ -7561,31 +7561,31 @@
         <v>29.19288442180797</v>
       </c>
       <c r="H43" t="n">
-        <v>111.6373186551286</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I43" t="n">
-        <v>111.6373186551286</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6373186551286</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K43" t="n">
-        <v>119.9936953385091</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q43" t="n">
         <v>125.8253588837063</v>
@@ -7643,34 +7643,34 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379386</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J44" t="n">
-        <v>361.2064541202871</v>
+        <v>332.426486525727</v>
       </c>
       <c r="K44" t="n">
-        <v>722.4683988401607</v>
+        <v>332.426486525727</v>
       </c>
       <c r="L44" t="n">
-        <v>805.1921157981634</v>
+        <v>415.1502034837298</v>
       </c>
       <c r="M44" t="n">
-        <v>900.990383952437</v>
+        <v>510.9484716380034</v>
       </c>
       <c r="N44" t="n">
-        <v>998.942399245478</v>
+        <v>872.2104163578771</v>
       </c>
       <c r="O44" t="n">
-        <v>1091.847833193772</v>
+        <v>1233.472361077751</v>
       </c>
       <c r="P44" t="n">
-        <v>1172.770608263658</v>
+        <v>1314.395136147637</v>
       </c>
       <c r="Q44" t="n">
-        <v>1384.186231172156</v>
+        <v>1388.141505481924</v>
       </c>
       <c r="R44" t="n">
-        <v>1437.745818867902</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S44" t="n">
         <v>1437.745818867902</v>
@@ -7722,13 +7722,13 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L45" t="n">
         <v>36.11675336931268</v>
@@ -7804,10 +7804,10 @@
         <v>29.19288442180797</v>
       </c>
       <c r="J46" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K46" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L46" t="n">
         <v>125.8253588837063</v>
@@ -8696,19 +8696,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3687890634112</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>95.03739323033895</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.86189106996713</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>81.30719271909983</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>77.83614047967616</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>161.3945396537014</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>356.4862498762809</v>
       </c>
       <c r="O26" t="n">
-        <v>372.7547224050855</v>
+        <v>361.5838067901666</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6706564983419</v>
+        <v>212.4076156347899</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.6434343361249</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>49.78138463476784</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955191</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10039,19 +10039,19 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
-        <v>104.1302923698531</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>106.7517885160091</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.50056746230722</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>144.1932869030401</v>
+        <v>80.5633030763816</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.05353208020588</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10270,22 +10270,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>353.2388020673333</v>
       </c>
       <c r="M32" t="n">
-        <v>464.2402338844431</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N32" t="n">
-        <v>144.1932869030401</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P32" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.6434343361249</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>7.492966013392589</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1112290740114</v>
+        <v>279.6998261949091</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>260.6793409633684</v>
       </c>
       <c r="O35" t="n">
-        <v>189.5537387602755</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>67.24464452552539</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10750,13 +10750,13 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1112290740114</v>
+        <v>29.00929375645916</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>271.067182597555</v>
       </c>
       <c r="P38" t="n">
-        <v>221.7402076595741</v>
+        <v>110.317657191555</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10987,16 +10987,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>246.1970853190447</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>413.7208550826452</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>96.37355953528073</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11218,19 +11218,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0135169984386</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>107.6956726878937</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P43" t="n">
         <v>110.1177504068044</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>146.7898054410172</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740114</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>265.9696256836693</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>271.0671825975549</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>139.0598520951618</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725116</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290983</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.0222855410919</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
-        <v>80.13804573086158</v>
+        <v>148.5350717189315</v>
       </c>
       <c r="D11" t="n">
-        <v>138.1547087945872</v>
+        <v>138.1547087945873</v>
       </c>
       <c r="E11" t="n">
-        <v>96.2709858072064</v>
+        <v>164.6680117952764</v>
       </c>
       <c r="F11" t="n">
-        <v>188.8438395205297</v>
+        <v>164.1569362151439</v>
       </c>
       <c r="G11" t="n">
-        <v>195.9592819557577</v>
+        <v>127.5622559676879</v>
       </c>
       <c r="H11" t="n">
-        <v>115.1318174460265</v>
+        <v>46.73479145795673</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417442</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748827</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>41.6861715744383</v>
+        <v>110.0831975625082</v>
       </c>
       <c r="W11" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="X11" t="n">
-        <v>152.4115751711582</v>
+        <v>152.4115751711583</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.2370477912246</v>
+        <v>99.84002180315488</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.2663860313839</v>
+        <v>105.022285541092</v>
       </c>
       <c r="C14" t="n">
-        <v>123.8481684135452</v>
+        <v>148.5350717189315</v>
       </c>
       <c r="D14" t="n">
-        <v>69.75768280651729</v>
+        <v>69.75768280651742</v>
       </c>
       <c r="E14" t="n">
-        <v>164.6680117952763</v>
+        <v>164.6680117952764</v>
       </c>
       <c r="F14" t="n">
         <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>195.9592819557577</v>
+        <v>127.5622559676879</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460265</v>
+        <v>46.73479145795669</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.565094327417526</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.99210285748836</v>
       </c>
       <c r="V14" t="n">
-        <v>41.68617157443825</v>
+        <v>110.0831975625082</v>
       </c>
       <c r="W14" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="X14" t="n">
-        <v>84.01454918308829</v>
+        <v>152.4115751711583</v>
       </c>
       <c r="Y14" t="n">
-        <v>168.2370477912246</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="15">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>976253.5301602579</v>
+        <v>976253.5301602578</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937188.4170079719</v>
+        <v>937188.4170079718</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937188.4170079719</v>
+        <v>937188.4170079718</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>527901.6455412315</v>
+      </c>
+      <c r="C2" t="n">
         <v>527901.6455412314</v>
       </c>
-      <c r="C2" t="n">
-        <v>527901.6455412315</v>
-      </c>
       <c r="D2" t="n">
-        <v>527901.6455412315</v>
+        <v>527901.6455412313</v>
       </c>
       <c r="E2" t="n">
-        <v>454050.8452155611</v>
+        <v>454050.8452155608</v>
       </c>
       <c r="F2" t="n">
-        <v>454050.845215561</v>
+        <v>454050.8452155609</v>
       </c>
       <c r="G2" t="n">
         <v>529047.6155997086</v>
       </c>
       <c r="H2" t="n">
-        <v>529047.6155997087</v>
+        <v>529047.6155997085</v>
       </c>
       <c r="I2" t="n">
-        <v>529047.6155997087</v>
+        <v>529047.6155997085</v>
       </c>
       <c r="J2" t="n">
-        <v>529047.6155997086</v>
+        <v>529047.6155997083</v>
       </c>
       <c r="K2" t="n">
+        <v>529047.6155997085</v>
+      </c>
+      <c r="L2" t="n">
+        <v>529047.6155997089</v>
+      </c>
+      <c r="M2" t="n">
         <v>529047.6155997083</v>
       </c>
-      <c r="L2" t="n">
-        <v>529047.6155997087</v>
-      </c>
-      <c r="M2" t="n">
-        <v>529047.6155997086</v>
-      </c>
       <c r="N2" t="n">
-        <v>529047.6155997087</v>
+        <v>529047.6155997082</v>
       </c>
       <c r="O2" t="n">
-        <v>529047.6155997083</v>
+        <v>529047.6155997082</v>
       </c>
       <c r="P2" t="n">
-        <v>529047.6155997082</v>
+        <v>529047.6155997084</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324348</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324348</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363344</v>
+        <v>17695.67856363342</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750816</v>
+        <v>71148.0201975081</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,31 +26424,31 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="I4" t="n">
         <v>426193.4292983837</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="K4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="L4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="N4" t="n">
         <v>431062.8369613773</v>
@@ -26457,7 +26457,7 @@
         <v>431062.8369613773</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613774</v>
+        <v>431062.8369613773</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24939.02968325744</v>
+        <v>24939.02968325743</v>
       </c>
       <c r="F5" t="n">
-        <v>24939.02968325745</v>
+        <v>24939.02968325743</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30721.92490553976</v>
+        <v>30717.51732839188</v>
       </c>
       <c r="C6" t="n">
-        <v>30721.92490553988</v>
+        <v>30717.51732839177</v>
       </c>
       <c r="D6" t="n">
-        <v>30721.92490553988</v>
+        <v>30717.51732839165</v>
       </c>
       <c r="E6" t="n">
-        <v>-216552.2447870696</v>
+        <v>-216840.6939039319</v>
       </c>
       <c r="F6" t="n">
-        <v>67653.13951692951</v>
+        <v>67364.69040006737</v>
       </c>
       <c r="G6" t="n">
         <v>-38852.75915619277</v>
       </c>
       <c r="H6" t="n">
-        <v>66811.31527624209</v>
+        <v>66811.31527624192</v>
       </c>
       <c r="I6" t="n">
-        <v>66811.31527624215</v>
+        <v>66811.31527624192</v>
       </c>
       <c r="J6" t="n">
-        <v>-119693.1988468146</v>
+        <v>-119693.1988468147</v>
       </c>
       <c r="K6" t="n">
-        <v>46931.60949643736</v>
+        <v>46931.60949643765</v>
       </c>
       <c r="L6" t="n">
-        <v>-58732.46493599686</v>
+        <v>-58732.4649359968</v>
       </c>
       <c r="M6" t="n">
-        <v>35246.79999447174</v>
+        <v>35246.79999447151</v>
       </c>
       <c r="N6" t="n">
-        <v>52942.47855810532</v>
+        <v>52942.47855810474</v>
       </c>
       <c r="O6" t="n">
-        <v>-18205.5416394033</v>
+        <v>-18205.54163940336</v>
       </c>
       <c r="P6" t="n">
-        <v>52942.47855810468</v>
+        <v>52942.47855810497</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="F2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="G2" t="n">
         <v>350.5301170005546</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>68.39702598806983</v>
+      </c>
+      <c r="F4" t="n">
         <v>68.39702598806987</v>
       </c>
-      <c r="F4" t="n">
-        <v>68.39702598806991</v>
-      </c>
       <c r="G4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="H4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="I4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806988</v>
       </c>
       <c r="J4" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="K4" t="n">
-        <v>433.3080812606695</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="L4" t="n">
-        <v>433.3080812606695</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="M4" t="n">
         <v>364.9110552725996</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688512</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="M2" t="n">
-        <v>22.1195982045418</v>
+        <v>22.11959820454177</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688512</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806983</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688512</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806983</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="C11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="D11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="E11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="F11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="G11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="H11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="I11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="J11" t="n">
-        <v>207.1089656766805</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K11" t="n">
-        <v>166.4438934986402</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="L11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N11" t="n">
-        <v>212.59031289111</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>149.2908438169258</v>
+        <v>161.5361953871219</v>
       </c>
       <c r="P11" t="n">
-        <v>161.3945396537014</v>
+        <v>66.35714642336247</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.78154326615781</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="R11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="S11" t="n">
-        <v>195.7140436393247</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="T11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="12">
@@ -28190,25 +28190,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N12" t="n">
-        <v>118.2982863334665</v>
+        <v>118.2982863334667</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
@@ -28223,13 +28223,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U12" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V12" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W12" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28245,19 +28245,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.2093877666364</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>217.4025925025892</v>
       </c>
       <c r="E13" t="n">
-        <v>215.371650161269</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>214.5560473978744</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>167.689771139254</v>
@@ -28278,13 +28278,13 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>104.1302923698531</v>
+        <v>172.527318357923</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O13" t="n">
-        <v>106.7517885160091</v>
+        <v>122.5545630998116</v>
       </c>
       <c r="P13" t="n">
         <v>110.1177504068044</v>
@@ -28293,28 +28293,28 @@
         <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
-        <v>218.4500239600112</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="C14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="D14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="E14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="F14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="H14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="I14" t="n">
-        <v>218.4500239600112</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J14" t="n">
-        <v>141.4348827973664</v>
+        <v>57.40474696951079</v>
       </c>
       <c r="K14" t="n">
-        <v>218.4500239600112</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5754064333818</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="M14" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N14" t="n">
-        <v>212.59031289111</v>
+        <v>212.5903128911099</v>
       </c>
       <c r="O14" t="n">
-        <v>71.45470333724958</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q14" t="n">
-        <v>218.4500239600112</v>
+        <v>184.8271531051991</v>
       </c>
       <c r="R14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="S14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="T14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>198.3412804185604</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -28424,28 +28424,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>141.057109663771</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P15" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0581031398714</v>
@@ -28460,13 +28460,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28482,16 +28482,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>215.3716501612691</v>
+        <v>189.8654659400086</v>
       </c>
       <c r="F16" t="n">
         <v>146.1590214098045</v>
@@ -28500,10 +28500,10 @@
         <v>167.689771139254</v>
       </c>
       <c r="H16" t="n">
-        <v>159.857510195687</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="I16" t="n">
-        <v>163.5522554526119</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J16" t="n">
         <v>109.6934180900282</v>
@@ -28518,13 +28518,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O16" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P16" t="n">
-        <v>178.5147763948743</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q16" t="n">
         <v>130.9853613927381</v>
@@ -28533,25 +28533,25 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="T16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="17">
@@ -28585,25 +28585,25 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
-        <v>207.1089656766806</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K17" t="n">
-        <v>226.3205134023499</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>186.2637451473613</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M17" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N17" t="n">
-        <v>144.1932869030401</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O17" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P17" t="n">
-        <v>161.3945396537014</v>
+        <v>229.7915656417713</v>
       </c>
       <c r="Q17" t="n">
         <v>168.6434343361249</v>
@@ -28615,10 +28615,10 @@
         <v>195.7140436393247</v>
       </c>
       <c r="T17" t="n">
-        <v>221.0151182874286</v>
+        <v>247.7034570014081</v>
       </c>
       <c r="U17" t="n">
-        <v>319.8391528055694</v>
+        <v>319.8391528055693</v>
       </c>
       <c r="V17" t="n">
         <v>350.5301170005546</v>
@@ -28664,25 +28664,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
@@ -28755,10 +28755,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O19" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P19" t="n">
         <v>110.1177504068044</v>
@@ -28822,37 +28822,37 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J20" t="n">
-        <v>182.3485539971071</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K20" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L20" t="n">
-        <v>159.5754064333818</v>
+        <v>227.9724324214516</v>
       </c>
       <c r="M20" t="n">
-        <v>146.3687890634112</v>
+        <v>214.765815051481</v>
       </c>
       <c r="N20" t="n">
-        <v>144.1932869030401</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O20" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P20" t="n">
-        <v>161.3945396537014</v>
+        <v>205.0311539621978</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.6434343361249</v>
+        <v>237.0404603241948</v>
       </c>
       <c r="R20" t="n">
-        <v>250.6108307898694</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S20" t="n">
-        <v>264.1110696273946</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T20" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
         <v>251.4421268174995</v>
@@ -28901,25 +28901,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
@@ -28992,10 +28992,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O22" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P22" t="n">
         <v>110.1177504068044</v>
@@ -29059,22 +29059,22 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
-        <v>187.3971738806254</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L23" t="n">
-        <v>159.5754064333818</v>
+        <v>186.2637451473612</v>
       </c>
       <c r="M23" t="n">
-        <v>146.3687890634112</v>
+        <v>214.765815051481</v>
       </c>
       <c r="N23" t="n">
-        <v>144.1932869030401</v>
+        <v>212.5903128911099</v>
       </c>
       <c r="O23" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P23" t="n">
         <v>161.3945396537014</v>
@@ -29086,16 +29086,16 @@
         <v>182.2138048017995</v>
       </c>
       <c r="S23" t="n">
-        <v>264.1110696273947</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
-        <v>319.8391528055694</v>
+        <v>319.8391528055693</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -29138,25 +29138,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
@@ -29229,10 +29229,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O25" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P25" t="n">
         <v>110.1177504068044</v>
@@ -29305,25 +29305,25 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="N26" t="n">
-        <v>144.1932869030401</v>
-      </c>
       <c r="O26" t="n">
-        <v>209.8442026725097</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5773928253673</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T26" t="n">
         <v>221.0151182874286</v>
@@ -29372,31 +29372,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>133.2055812664113</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065689</v>
+        <v>140.2857513472117</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346598</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175255</v>
+        <v>28.40891246698466</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>127.2394152081628</v>
@@ -29433,7 +29433,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>200.144082912315</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
@@ -29466,19 +29466,19 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>221.0151182874286</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R28" t="n">
-        <v>221.0151182874286</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S28" t="n">
         <v>218.8751278244474</v>
@@ -29530,34 +29530,34 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I29" t="n">
+        <v>196.1067688194878</v>
+      </c>
+      <c r="J29" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="J29" t="n">
-        <v>140.9116161971995</v>
       </c>
       <c r="K29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="L29" t="n">
-        <v>158.5158245615829</v>
+        <v>158.5158245615827</v>
       </c>
       <c r="M29" t="n">
+        <v>146.3687890634112</v>
+      </c>
+      <c r="N29" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" t="n">
-        <v>221.0151182874286</v>
+        <v>186.56673656434</v>
       </c>
       <c r="P29" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>221.0151182874286</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R29" t="n">
-        <v>221.0151182874286</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S29" t="n">
         <v>221.0151182874286</v>
@@ -29597,7 +29597,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>200.4107621537287</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -29606,31 +29606,31 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H30" t="n">
-        <v>108.160635135932</v>
+        <v>152.5379635824868</v>
       </c>
       <c r="I30" t="n">
         <v>88.82825281985649</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175255</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P30" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
@@ -29676,40 +29676,40 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>197.5224690679979</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>221.0151182874286</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H31" t="n">
         <v>159.857510195687</v>
       </c>
       <c r="I31" t="n">
-        <v>221.0151182874286</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
         <v>109.6934180900282</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>160.1572958577823</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q31" t="n">
         <v>130.9853613927381</v>
@@ -29773,31 +29773,31 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K32" t="n">
-        <v>220.54344959868</v>
+        <v>214.8286880506996</v>
       </c>
       <c r="L32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="M32" t="n">
-        <v>115.4366364396376</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O32" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
-        <v>221.0151182874286</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T32" t="n">
         <v>221.0151182874286</v>
@@ -29849,25 +29849,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M33" t="n">
-        <v>122.5676255483075</v>
+        <v>122.5676255483073</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P33" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q33" t="n">
         <v>106.0581031398714</v>
@@ -29910,7 +29910,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>213.1070376325057</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -29940,10 +29940,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O34" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P34" t="n">
         <v>221.0151182874286</v>
@@ -29952,7 +29952,7 @@
         <v>130.9853613927381</v>
       </c>
       <c r="R34" t="n">
-        <v>221.0151182874286</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S34" t="n">
         <v>221.0151182874286</v>
@@ -30010,7 +30010,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K35" t="n">
-        <v>96.96223721983175</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L35" t="n">
         <v>243.1347164919704</v>
@@ -30031,7 +30031,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R35" t="n">
-        <v>182.2138048017995</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S35" t="n">
         <v>243.1347164919704</v>
@@ -30086,31 +30086,31 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346598</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175255</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725116</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.0581031398714</v>
+        <v>38.813458614346</v>
       </c>
       <c r="R36" t="n">
-        <v>134.2332222258443</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
@@ -30119,7 +30119,7 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U36" t="n">
-        <v>224.641496683099</v>
+        <v>231.6353037007806</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -30165,7 +30165,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>207.3019781525518</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
         <v>102.5727324697714</v>
@@ -30174,13 +30174,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>201.7388524323767</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P37" t="n">
         <v>110.1177504068044</v>
@@ -30244,10 +30244,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J38" t="n">
-        <v>138.7119396886106</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K38" t="n">
-        <v>130.3972316382639</v>
+        <v>128.9141936578208</v>
       </c>
       <c r="L38" t="n">
         <v>243.1347164919704</v>
@@ -30274,7 +30274,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="T38" t="n">
-        <v>221.0151182874286</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U38" t="n">
         <v>243.1347164919704</v>
@@ -30323,25 +30323,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703222</v>
+        <v>108.1424160880037</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725116</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q39" t="n">
         <v>106.0581031398714</v>
@@ -30356,7 +30356,7 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U39" t="n">
-        <v>231.6353037007806</v>
+        <v>224.641496683099</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>201.8940879924393</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -30411,25 +30411,25 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R40" t="n">
-        <v>237.7555845778352</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S40" t="n">
-        <v>243.1347164919704</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T40" t="n">
         <v>227.4786990669493</v>
@@ -30478,7 +30478,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="I41" t="n">
-        <v>188.0507309546109</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J41" t="n">
         <v>243.1347164919704</v>
@@ -30490,7 +30490,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="M41" t="n">
-        <v>243.1347164919704</v>
+        <v>97.55898925336557</v>
       </c>
       <c r="N41" t="n">
         <v>243.1347164919704</v>
@@ -30505,10 +30505,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R41" t="n">
-        <v>174.8083099880502</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T41" t="n">
         <v>243.1347164919704</v>
@@ -30560,31 +30560,31 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346594</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290983</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q42" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
-        <v>127.2394152081628</v>
+        <v>134.2332222258443</v>
       </c>
       <c r="S42" t="n">
         <v>164.5345187941275</v>
@@ -30602,7 +30602,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="X42" t="n">
-        <v>211.4554366261598</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -30633,7 +30633,7 @@
         <v>167.689771139254</v>
       </c>
       <c r="H43" t="n">
-        <v>243.1347164919704</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I43" t="n">
         <v>147.7494808688102</v>
@@ -30642,7 +30642,7 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,16 +30651,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.9853613927381</v>
+        <v>228.5939214552617</v>
       </c>
       <c r="R43" t="n">
         <v>164.4066131828346</v>
@@ -30721,7 +30721,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K44" t="n">
-        <v>185.7233136128683</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>243.1347164919704</v>
@@ -30742,10 +30742,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R44" t="n">
-        <v>167.9693217659652</v>
+        <v>184.8984990056974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T44" t="n">
         <v>243.1347164919704</v>
@@ -30794,28 +30794,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>95.82205983753801</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065687</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346598</v>
+        <v>90.33383297114746</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q45" t="n">
         <v>106.0581031398714</v>
@@ -30876,22 +30876,22 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
-        <v>207.3019781525518</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>199.4136635128443</v>
       </c>
       <c r="M46" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P46" t="n">
         <v>110.1177504068044</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R12" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R13" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R15" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R16" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R18" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R19" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R21" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R22" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R24" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R25" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R27" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R28" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R30" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R31" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R33" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R34" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R36" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R37" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R39" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R40" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T41" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R42" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R43" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115718</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351313</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490848</v>
+        <v>37.8078172249085</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457612</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317975</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363612</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768636</v>
+        <v>64.0576312076864</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146335</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T44" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496593</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532128</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200766</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934314</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191141</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169807</v>
+        <v>61.9887397916981</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606219</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R45" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938706</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229859</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593427</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906179</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678754</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R46" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947725</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583159</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540028</v>
+        <v>30.39929300540021</v>
       </c>
       <c r="J11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8.520406084360241</v>
+        <v>60.52653654573118</v>
       </c>
       <c r="L11" t="n">
-        <v>58.87461752662941</v>
+        <v>58.87461752662938</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>12.2453515701962</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>49.8065896238862</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821164</v>
+        <v>36.23621915821158</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.73598032068639</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52.22885684391455</v>
+        <v>52.22885684391483</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35541,19 +35541,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1256962759525766</v>
+        <v>38.36633246932729</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>68.39702598806983</v>
       </c>
       <c r="E13" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>68.39702598806983</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>15.80277458380259</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.0434107771766</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39929300540028</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.722943108755724</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>60.52653654573122</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>58.87461752662938</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.80658962388625</v>
+        <v>16.18371876907421</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821164</v>
+        <v>36.23621915821158</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068647</v>
+        <v>22.73598032068639</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>52.22885684391483</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35778,16 +35778,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.36633246932738</v>
+        <v>38.36633246932729</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51.11347102880876</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>68.39702598806991</v>
+        <v>42.89084176680937</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,10 +35796,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.59251376432412</v>
       </c>
       <c r="I16" t="n">
-        <v>15.80277458380171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35875,19 +35875,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.94827559451692</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="K17" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>26.68833871397954</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>26.68833871397949</v>
       </c>
       <c r="U17" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="V17" t="n">
         <v>21.99689547803524</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.63661430849646</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,19 +36136,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>43.63661430849643</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36349,25 +36349,25 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.94827559451692</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>48.68523419201481</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>26.68833871397953</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>68.39702598806988</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>68.39702598806988</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806988</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.96438733281771</v>
+        <v>32.96438733281772</v>
       </c>
       <c r="J26" t="n">
-        <v>258.1636583777747</v>
+        <v>82.30317859881798</v>
       </c>
       <c r="K26" t="n">
-        <v>400.2028599471601</v>
+        <v>63.09163087314869</v>
       </c>
       <c r="L26" t="n">
-        <v>61.43971185404683</v>
+        <v>61.43971185404689</v>
       </c>
       <c r="M26" t="n">
-        <v>74.64632922401738</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="O26" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="P26" t="n">
-        <v>347.8535096700078</v>
+        <v>272.0281942685171</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1463901535308</v>
+        <v>38.80131348562909</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>25.3010746481039</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.80752998111267</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36759,22 +36759,22 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>81.51975497597036</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>62.81154450450873</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.5303243569977</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>56.60850510459403</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281771</v>
+        <v>8.056037864876917</v>
       </c>
       <c r="J29" t="n">
-        <v>178.0601562875456</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K29" t="n">
         <v>400.2028599471601</v>
       </c>
       <c r="L29" t="n">
-        <v>433.3080812606695</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="M29" t="n">
-        <v>74.64632922401738</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>157.3851344607702</v>
       </c>
       <c r="O29" t="n">
-        <v>71.72427447050286</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="P29" t="n">
-        <v>394.2912351320691</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.42521603150956</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>38.80131348562907</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>25.30107464810389</v>
+        <v>25.3010746481039</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36893,16 +36893,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36972,19 +36972,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>50.54784489479871</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.32534714817462</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>73.26563741861841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>66.24146158096751</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.8973678806242</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.96438733281768</v>
+        <v>32.96438733281772</v>
       </c>
       <c r="J32" t="n">
         <v>258.1636583777747</v>
       </c>
       <c r="K32" t="n">
-        <v>399.7311912584114</v>
+        <v>56.90520063641972</v>
       </c>
       <c r="L32" t="n">
-        <v>61.43971185404681</v>
+        <v>414.6785139213802</v>
       </c>
       <c r="M32" t="n">
-        <v>433.3080812606695</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>71.72427447050283</v>
+        <v>246.7413446963295</v>
       </c>
       <c r="P32" t="n">
         <v>394.2912351320691</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R32" t="n">
-        <v>38.80131348562904</v>
+        <v>38.80131348562909</v>
       </c>
       <c r="S32" t="n">
-        <v>25.30107464810386</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>44.37732844655492</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>64.10147111798635</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37242,16 +37242,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>118.3903338940168</v>
+        <v>110.8973678806242</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>56.608505104594</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2.139990462981137</v>
+        <v>2.139990462981168</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735948</v>
+        <v>55.0839855373595</v>
       </c>
       <c r="J35" t="n">
-        <v>104.4227768033597</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K35" t="n">
-        <v>276.1499788795632</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="L35" t="n">
-        <v>83.55931005858861</v>
+        <v>83.55931005858866</v>
       </c>
       <c r="M35" t="n">
-        <v>96.76592742855915</v>
+        <v>96.76592742855921</v>
       </c>
       <c r="N35" t="n">
-        <v>98.94142958893029</v>
+        <v>359.6207705522988</v>
       </c>
       <c r="O35" t="n">
-        <v>283.3976114353201</v>
+        <v>93.84387267504469</v>
       </c>
       <c r="P35" t="n">
-        <v>81.74017683826894</v>
+        <v>81.74017683826898</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.2988724421463</v>
+        <v>74.49128215584548</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>60.92091169017087</v>
       </c>
       <c r="S35" t="n">
         <v>47.42067285264567</v>
@@ -37406,16 +37406,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>6.993807017681523</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>97.60856006252358</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735948</v>
+        <v>55.0839855373595</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K38" t="n">
-        <v>309.5849732979953</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>83.55931005858861</v>
+        <v>83.55931005858866</v>
       </c>
       <c r="M38" t="n">
-        <v>96.76592742855915</v>
+        <v>96.76592742855921</v>
       </c>
       <c r="N38" t="n">
-        <v>98.94142958893029</v>
+        <v>98.94142958893035</v>
       </c>
       <c r="O38" t="n">
-        <v>93.84387267504464</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="P38" t="n">
-        <v>303.480384497843</v>
+        <v>192.057834029824</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.2988724421463</v>
+        <v>74.49128215584548</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017084</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S38" t="n">
         <v>47.42067285264567</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>6.99380701768152</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37652,7 +37652,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>21.81039650175553</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>75.79816356076805</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37722,10 +37722,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.34897139500063</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.25958866752294</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>55.0839855373595</v>
       </c>
       <c r="J41" t="n">
-        <v>280.2832565823164</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K41" t="n">
-        <v>331.4083143967351</v>
+        <v>85.21122907769046</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858861</v>
+        <v>83.55931005858866</v>
       </c>
       <c r="M41" t="n">
-        <v>96.76592742855915</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="N41" t="n">
-        <v>98.94142958893029</v>
+        <v>98.94142958893035</v>
       </c>
       <c r="O41" t="n">
-        <v>93.84387267504464</v>
+        <v>190.2174322103254</v>
       </c>
       <c r="P41" t="n">
-        <v>81.74017683826894</v>
+        <v>81.74017683826898</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.2988724421463</v>
+        <v>74.49128215584548</v>
       </c>
       <c r="R41" t="n">
-        <v>60.93958185415238</v>
+        <v>60.92091169017087</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T41" t="n">
         <v>22.11959820454176</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.99380701768152</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37898,7 +37898,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.27720629628341</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.440784528667226</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.890569237572945</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.60856006252358</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735948</v>
+        <v>55.0839855373595</v>
       </c>
       <c r="J44" t="n">
-        <v>280.2832565823164</v>
+        <v>251.2125822443769</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>83.55931005858866</v>
+      </c>
+      <c r="M44" t="n">
+        <v>96.76592742855921</v>
+      </c>
+      <c r="N44" t="n">
         <v>364.9110552725996</v>
       </c>
-      <c r="L44" t="n">
-        <v>83.55931005858861</v>
-      </c>
-      <c r="M44" t="n">
-        <v>96.76592742855915</v>
-      </c>
-      <c r="N44" t="n">
-        <v>98.94142958893029</v>
-      </c>
       <c r="O44" t="n">
-        <v>93.84387267504464</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="P44" t="n">
-        <v>81.74017683826894</v>
+        <v>81.74017683826898</v>
       </c>
       <c r="Q44" t="n">
-        <v>213.5511342510073</v>
+        <v>74.49128215584548</v>
       </c>
       <c r="R44" t="n">
-        <v>54.10059363206736</v>
+        <v>2.684694203897859</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T44" t="n">
         <v>22.11959820454176</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>6.99380701768152</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>97.60856006252358</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
